--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.220712</v>
+        <v>0.432712</v>
       </c>
       <c r="H2">
-        <v>6.662135999999999</v>
+        <v>1.298136</v>
       </c>
       <c r="I2">
-        <v>0.004164179109543329</v>
+        <v>0.0008141316526434356</v>
       </c>
       <c r="J2">
-        <v>0.00416417910954333</v>
+        <v>0.0008141316526434357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6120643333333333</v>
+        <v>3.849718000000001</v>
       </c>
       <c r="N2">
-        <v>1.836193</v>
+        <v>11.549154</v>
       </c>
       <c r="O2">
-        <v>0.01381035804569015</v>
+        <v>0.08094976577134179</v>
       </c>
       <c r="P2">
-        <v>0.01381035804569015</v>
+        <v>0.08094976577134178</v>
       </c>
       <c r="Q2">
-        <v>1.359218609805333</v>
+        <v>1.665819175216</v>
       </c>
       <c r="R2">
-        <v>12.232967488248</v>
+        <v>14.992372576944</v>
       </c>
       <c r="S2">
-        <v>5.750880446917657E-05</v>
+        <v>6.59037665885215E-05</v>
       </c>
       <c r="T2">
-        <v>5.750880446917658E-05</v>
+        <v>6.59037665885215E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.220712</v>
+        <v>0.432712</v>
       </c>
       <c r="H3">
-        <v>6.662135999999999</v>
+        <v>1.298136</v>
       </c>
       <c r="I3">
-        <v>0.004164179109543329</v>
+        <v>0.0008141316526434356</v>
       </c>
       <c r="J3">
-        <v>0.00416417910954333</v>
+        <v>0.0008141316526434357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.523445</v>
       </c>
       <c r="O3">
-        <v>0.1092336020815287</v>
+        <v>0.1017970208850765</v>
       </c>
       <c r="P3">
-        <v>0.1092336020815287</v>
+        <v>0.1017970208850765</v>
       </c>
       <c r="Q3">
-        <v>10.75079619761333</v>
+        <v>2.094822977613333</v>
       </c>
       <c r="R3">
-        <v>96.75716577851999</v>
+        <v>18.85340679852</v>
       </c>
       <c r="S3">
-        <v>0.0004548682838480705</v>
+        <v>8.287617684734566E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004548682838480705</v>
+        <v>8.287617684734566E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.220712</v>
+        <v>0.432712</v>
       </c>
       <c r="H4">
-        <v>6.662135999999999</v>
+        <v>1.298136</v>
       </c>
       <c r="I4">
-        <v>0.004164179109543329</v>
+        <v>0.0008141316526434356</v>
       </c>
       <c r="J4">
-        <v>0.00416417910954333</v>
+        <v>0.0008141316526434357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>116.59803</v>
       </c>
       <c r="O4">
-        <v>0.8769560398727811</v>
+        <v>0.8172532133435817</v>
       </c>
       <c r="P4">
-        <v>0.8769560398727813</v>
+        <v>0.8172532133435817</v>
       </c>
       <c r="Q4">
-        <v>86.31021479911998</v>
+        <v>16.81778891912</v>
       </c>
       <c r="R4">
-        <v>776.7919331920799</v>
+        <v>151.36010027208</v>
       </c>
       <c r="S4">
-        <v>0.003651802021226082</v>
+        <v>0.0006653517092075683</v>
       </c>
       <c r="T4">
-        <v>0.003651802021226083</v>
+        <v>0.0006653517092075684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1583.403657</v>
       </c>
       <c r="I5">
-        <v>0.9897090708526379</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="J5">
-        <v>0.9897090708526382</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6120643333333333</v>
+        <v>3.849718000000001</v>
       </c>
       <c r="N5">
-        <v>1.836193</v>
+        <v>11.549154</v>
       </c>
       <c r="O5">
-        <v>0.01381035804569015</v>
+        <v>0.08094976577134179</v>
       </c>
       <c r="P5">
-        <v>0.01381035804569015</v>
+        <v>0.08094976577134178</v>
       </c>
       <c r="Q5">
-        <v>323.0483012397556</v>
+        <v>2031.885853206242</v>
       </c>
       <c r="R5">
-        <v>2907.434711157801</v>
+        <v>18286.97267885618</v>
       </c>
       <c r="S5">
-        <v>0.01366823662954225</v>
+        <v>0.08038623459047385</v>
       </c>
       <c r="T5">
-        <v>0.01366823662954226</v>
+        <v>0.08038623459047384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1583.403657</v>
       </c>
       <c r="I6">
-        <v>0.9897090708526379</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="J6">
-        <v>0.9897090708526382</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.523445</v>
       </c>
       <c r="O6">
-        <v>0.1092336020815287</v>
+        <v>0.1017970208850765</v>
       </c>
       <c r="P6">
-        <v>0.1092336020815287</v>
+        <v>0.1017970208850765</v>
       </c>
       <c r="Q6">
         <v>2555.163991693151</v>
@@ -818,10 +818,10 @@
         <v>22996.47592523836</v>
       </c>
       <c r="S6">
-        <v>0.1081094868219965</v>
+        <v>0.1010883616957436</v>
       </c>
       <c r="T6">
-        <v>0.1081094868219966</v>
+        <v>0.1010883616957436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1583.403657</v>
       </c>
       <c r="I7">
-        <v>0.9897090708526379</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="J7">
-        <v>0.9897090708526382</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>116.59803</v>
       </c>
       <c r="O7">
-        <v>0.8769560398727811</v>
+        <v>0.8172532133435817</v>
       </c>
       <c r="P7">
-        <v>0.8769560398727813</v>
+        <v>0.8172532133435817</v>
       </c>
       <c r="Q7">
         <v>20513.52745566619</v>
@@ -880,10 +880,10 @@
         <v>184621.7471009957</v>
       </c>
       <c r="S7">
-        <v>0.8679313474010991</v>
+        <v>0.8115639112931652</v>
       </c>
       <c r="T7">
-        <v>0.8679313474010995</v>
+        <v>0.8115639112931652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.80199</v>
       </c>
       <c r="I8">
-        <v>0.006126750037818593</v>
+        <v>0.006147360767973794</v>
       </c>
       <c r="J8">
-        <v>0.006126750037818595</v>
+        <v>0.006147360767973795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6120643333333333</v>
+        <v>3.849718000000001</v>
       </c>
       <c r="N8">
-        <v>1.836193</v>
+        <v>11.549154</v>
       </c>
       <c r="O8">
-        <v>0.01381035804569015</v>
+        <v>0.08094976577134179</v>
       </c>
       <c r="P8">
-        <v>0.01381035804569015</v>
+        <v>0.08094976577134178</v>
       </c>
       <c r="Q8">
-        <v>1.99981615823</v>
+        <v>12.57829911294</v>
       </c>
       <c r="R8">
-        <v>17.99834542407</v>
+        <v>113.20469201646</v>
       </c>
       <c r="S8">
-        <v>8.461261167872046E-05</v>
+        <v>0.0004976274142794144</v>
       </c>
       <c r="T8">
-        <v>8.461261167872049E-05</v>
+        <v>0.0004976274142794144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.80199</v>
       </c>
       <c r="I9">
-        <v>0.006126750037818593</v>
+        <v>0.006147360767973794</v>
       </c>
       <c r="J9">
-        <v>0.006126750037818595</v>
+        <v>0.006147360767973795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.523445</v>
       </c>
       <c r="O9">
-        <v>0.1092336020815287</v>
+        <v>0.1017970208850765</v>
       </c>
       <c r="P9">
-        <v>0.1092336020815287</v>
+        <v>0.1017970208850765</v>
       </c>
       <c r="Q9">
         <v>15.81762918395</v>
@@ -1004,10 +1004,10 @@
         <v>142.35866265555</v>
       </c>
       <c r="S9">
-        <v>0.000669246975684067</v>
+        <v>0.0006257830124855282</v>
       </c>
       <c r="T9">
-        <v>0.0006692469756840673</v>
+        <v>0.0006257830124855282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.80199</v>
       </c>
       <c r="I10">
-        <v>0.006126750037818593</v>
+        <v>0.006147360767973794</v>
       </c>
       <c r="J10">
-        <v>0.006126750037818595</v>
+        <v>0.006147360767973795</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>116.59803</v>
       </c>
       <c r="O10">
-        <v>0.8769560398727811</v>
+        <v>0.8172532133435817</v>
       </c>
       <c r="P10">
-        <v>0.8769560398727813</v>
+        <v>0.8172532133435817</v>
       </c>
       <c r="Q10">
         <v>126.9880804533</v>
@@ -1066,10 +1066,10 @@
         <v>1142.8927240797</v>
       </c>
       <c r="S10">
-        <v>0.005372890450455805</v>
+        <v>0.005023950341208851</v>
       </c>
       <c r="T10">
-        <v>0.005372890450455808</v>
+        <v>0.005023950341208852</v>
       </c>
     </row>
   </sheetData>
